--- a/DragPrediction/NL2VP DragX/0.75L/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75L/n/7/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.75L\n\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,8 +369,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <v>1.55555556E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>3.875829</v>
       </c>
@@ -383,8 +386,16 @@
       <c r="D2" s="1">
         <v>0.32344499999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>A2*$E$1</f>
+        <v>6.0290673505592397E-2</v>
+      </c>
+      <c r="F2">
+        <f>SUM(E2:E81)</f>
+        <v>9.828264332525201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>11.170367000000001</v>
       </c>
@@ -397,8 +408,12 @@
       <c r="D3" s="1">
         <v>0.31783099999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
+        <v>0.17376126494090521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>9.5775559999999995</v>
       </c>
@@ -411,8 +426,12 @@
       <c r="D4" s="1">
         <v>0.31580900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.1489842048701136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>9.9495290000000001</v>
       </c>
@@ -425,8 +444,12 @@
       <c r="D5" s="1">
         <v>0.31384699999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.1547704515533124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>11.586548000000001</v>
       </c>
@@ -439,8 +462,12 @@
       <c r="D6" s="1">
         <v>0.47365699999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.1802351916260688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>11.204898</v>
       </c>
@@ -453,8 +480,12 @@
       <c r="D7" s="1">
         <v>0.31767699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.1742984138313288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>11.668241999999999</v>
       </c>
@@ -467,8 +498,12 @@
       <c r="D8" s="1">
         <v>0.47191100000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.18150598718525518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7.335</v>
       </c>
@@ -481,8 +516,12 @@
       <c r="D9" s="1">
         <v>0.48140300000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.114100000326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7.4162540000000003</v>
       </c>
@@ -495,8 +534,12 @@
       <c r="D10" s="1">
         <v>0.48398600000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.11536395144072241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>5.2184590000000002</v>
       </c>
@@ -509,8 +552,12 @@
       <c r="D11" s="1">
         <v>0.64412999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.1176029120820406E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>5.5206390000000001</v>
       </c>
@@ -523,8 +570,12 @@
       <c r="D12" s="1">
         <v>0.63231199999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.5876606912028405E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>7.3028709999999997</v>
       </c>
@@ -537,8 +588,12 @@
       <c r="D13" s="1">
         <v>0.47758499999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.11360021588012759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>6.0084099999999996</v>
       </c>
@@ -551,8 +606,12 @@
       <c r="D14" s="1">
         <v>0.63223700000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9.3464155822595998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>10.90926</v>
       </c>
@@ -565,8 +624,12 @@
       <c r="D15" s="1">
         <v>0.63095400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.16969960048485599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>12.331514</v>
       </c>
@@ -579,8 +642,12 @@
       <c r="D16" s="1">
         <v>0.31764500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.19182355165917842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>12.422687</v>
       </c>
@@ -593,8 +660,12 @@
       <c r="D17" s="1">
         <v>0.47877799999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.19324179832989719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>6.7307980000000001</v>
       </c>
@@ -607,8 +678,12 @@
       <c r="D18" s="1">
         <v>0.63164399999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.10470130252136881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>5.111408</v>
       </c>
@@ -621,8 +696,12 @@
       <c r="D19" s="1">
         <v>0.79157200000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7.95107913382848E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>14.414414000000001</v>
       </c>
@@ -635,8 +714,12 @@
       <c r="D20" s="1">
         <v>0.63127699999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.22422421841841841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>5.3824909999999999</v>
       </c>
@@ -649,8 +732,12 @@
       <c r="D21" s="1">
         <v>0.79211100000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8.3727638016999603E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>5.7198399999999996</v>
       </c>
@@ -663,8 +750,12 @@
       <c r="D22" s="1">
         <v>0.79135100000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8.8975289143103986E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>5.4347969999999997</v>
       </c>
@@ -677,8 +768,12 @@
       <c r="D23" s="1">
         <v>0.79247999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8.4541286908213192E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>4.843083</v>
       </c>
@@ -691,8 +786,12 @@
       <c r="D24" s="1">
         <v>0.79080099999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>7.5336846881914804E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>5.8779469999999998</v>
       </c>
@@ -705,8 +804,12 @@
       <c r="D25" s="1">
         <v>0.94922899999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>9.1434731372353195E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>6.0364899999999997</v>
       </c>
@@ -719,8 +822,12 @@
       <c r="D26" s="1">
         <v>0.95162599999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>9.3900955823843987E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>4.1995909999999999</v>
       </c>
@@ -733,8 +840,12 @@
       <c r="D27" s="1">
         <v>0.79073899999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6.5326971297759592E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>5.9788259999999998</v>
       </c>
@@ -747,8 +858,12 @@
       <c r="D28" s="1">
         <v>0.94922499999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>9.3003960265725591E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>5.4828489999999999</v>
       </c>
@@ -761,8 +876,12 @@
       <c r="D29" s="1">
         <v>0.949627</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>8.5288762465904402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>5.1601540000000004</v>
       </c>
@@ -775,8 +894,12 @@
       <c r="D30" s="1">
         <v>1.109756</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>8.0269062451562401E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>5.2371629999999998</v>
       </c>
@@ -789,8 +912,12 @@
       <c r="D31" s="1">
         <v>1.1069519999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8.146698023276279E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>4.9705560000000002</v>
       </c>
@@ -803,8 +930,12 @@
       <c r="D32" s="1">
         <v>0.94921500000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>7.7319760220913608E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>5.1488649999999998</v>
       </c>
@@ -817,8 +948,12 @@
       <c r="D33" s="1">
         <v>1.1070469999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>8.0093455784394002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>5.7656799999999997</v>
       </c>
@@ -831,8 +966,12 @@
       <c r="D34" s="1">
         <v>1.265698</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>8.9688355811807993E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>4.863143</v>
       </c>
@@ -845,8 +984,12 @@
       <c r="D35" s="1">
         <v>1.110535</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7.5648891327250806E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>5.0600149999999999</v>
       </c>
@@ -859,8 +1002,12 @@
       <c r="D36" s="1">
         <v>1.2658929999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>7.8711344669333994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>2.9537949999999999</v>
       </c>
@@ -873,8 +1020,12 @@
       <c r="D37" s="1">
         <v>0.94849700000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4.5947922353502001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>4.897265</v>
       </c>
@@ -887,8 +1038,12 @@
       <c r="D38" s="1">
         <v>1.109896</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>7.6179677995434E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>2.9326780000000001</v>
       </c>
@@ -901,8 +1056,12 @@
       <c r="D39" s="1">
         <v>1.2656080000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>4.5619435685896804E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>2.1809379999999998</v>
       </c>
@@ -915,8 +1074,12 @@
       <c r="D40" s="1">
         <v>1.2654840000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>3.3925702319152796E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>3.0751680000000001</v>
       </c>
@@ -929,8 +1092,12 @@
       <c r="D41" s="1">
         <v>1.265353</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4.7835946803340801E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>-13.386680999999999</v>
       </c>
@@ -943,8 +1110,12 @@
       <c r="D42" s="1">
         <v>1.265325</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-0.20823726059496359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>-17.857032</v>
       </c>
@@ -957,8 +1128,12 @@
       <c r="D43" s="1">
         <v>1.2653779999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-0.2777760541269792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>-20.609819999999999</v>
       </c>
@@ -971,8 +1146,12 @@
       <c r="D44" s="1">
         <v>1.2655320000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.32059720091599198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>-22.954934999999999</v>
       </c>
@@ -985,8 +1164,12 @@
       <c r="D45" s="1">
         <v>1.2660480000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.35707676768688595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>-24.224034</v>
       </c>
@@ -999,8 +1182,12 @@
       <c r="D46" s="1">
         <v>1.2656210000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.37681830774329039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>-14.712783</v>
       </c>
@@ -1013,8 +1200,12 @@
       <c r="D47" s="1">
         <v>1.10927</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-0.22886551398723479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>-11.379109</v>
       </c>
@@ -1027,8 +1218,12 @@
       <c r="D48" s="1">
         <v>1.1096280000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-0.17700836272796039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>-9.1025910000000003</v>
       </c>
@@ -1041,8 +1236,12 @@
       <c r="D49" s="1">
         <v>1.1101030000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-0.1415958604045596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>-6.6919430000000002</v>
       </c>
@@ -1055,8 +1254,12 @@
       <c r="D50" s="1">
         <v>1.110204</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-0.1040968914085308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>-6.1049429999999996</v>
       </c>
@@ -1069,8 +1272,12 @@
       <c r="D51" s="1">
         <v>1.106622</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-9.4965780271330791E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>4.3944830000000001</v>
       </c>
@@ -1083,8 +1290,12 @@
       <c r="D52" s="1">
         <v>0.95112699999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>6.8358624639754798E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>-41.971545999999996</v>
       </c>
@@ -1097,8 +1308,12 @@
       <c r="D53" s="1">
         <v>0.94877500000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-0.6528907174209575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>12.903155</v>
       </c>
@@ -1111,8 +1326,12 @@
       <c r="D54" s="1">
         <v>0.95105899999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.200715745017918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>15.688564</v>
       </c>
@@ -1125,8 +1344,12 @@
       <c r="D55" s="1">
         <v>0.95235599999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.24404432958615838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>17.789656000000001</v>
       </c>
@@ -1139,8 +1362,12 @@
       <c r="D56" s="1">
         <v>0.95166899999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.2767279830128736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>17.408173999999999</v>
       </c>
@@ -1153,8 +1380,12 @@
       <c r="D57" s="1">
         <v>0.95385200000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.27079381855147439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>-4.1178429999999997</v>
       </c>
@@ -1167,8 +1398,12 @@
       <c r="D58" s="1">
         <v>0.78973199999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-6.4055335738570793E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>-3.9990649999999999</v>
       </c>
@@ -1181,8 +1416,12 @@
       <c r="D59" s="1">
         <v>0.79092200000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-6.2207677955513997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>-7.5724239999999998</v>
       </c>
@@ -1195,8 +1434,12 @@
       <c r="D60" s="1">
         <v>0.79025400000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-0.1177932625587744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>-8.6073590000000006</v>
       </c>
@@ -1209,8 +1452,12 @@
       <c r="D61" s="1">
         <v>0.789686</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-0.13389225149366041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>-9.8486060000000002</v>
       </c>
@@ -1223,8 +1470,12 @@
       <c r="D62" s="1">
         <v>0.79211399999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-0.15320053821549359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>-10.342326</v>
       </c>
@@ -1237,8 +1488,12 @@
       <c r="D63" s="1">
         <v>0.79157699999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-0.16088062712632559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>-30.921393999999999</v>
       </c>
@@ -1251,8 +1506,12 @@
       <c r="D64" s="1">
         <v>0.63193100000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-0.48099946359650636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>3.3751470000000001</v>
       </c>
@@ -1265,8 +1524,12 @@
       <c r="D65" s="1">
         <v>0.63239199999999995</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>5.2502286816673203E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>-7.5602299999999998</v>
       </c>
@@ -1279,8 +1542,12 @@
       <c r="D66" s="1">
         <v>0.63170099999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-0.11760357811378799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>-3.283766</v>
       </c>
@@ -1293,8 +1560,12 @@
       <c r="D67" s="1">
         <v>0.47208299999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <f t="shared" ref="E67:E81" si="1">A67*$E$1</f>
+        <v>-5.1080804590389599E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>-9.1093600000000006</v>
       </c>
@@ -1307,8 +1578,12 @@
       <c r="D68" s="1">
         <v>0.63124899999999995</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-0.14170115596041602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>-1.6758789999999999</v>
       </c>
@@ -1321,8 +1596,12 @@
       <c r="D69" s="1">
         <v>0.314718</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-2.6069228963372399E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>-15.782261</v>
       </c>
@@ -1335,8 +1614,12 @@
       <c r="D70" s="1">
         <v>0.63379700000000005</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-0.24550183847921159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>14.677315999999999</v>
       </c>
@@ -1349,8 +1632,12 @@
       <c r="D71" s="1">
         <v>0.47511199999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.22831380509676957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>-13.388944</v>
       </c>
@@ -1363,8 +1650,12 @@
       <c r="D72" s="1">
         <v>0.63042200000000004</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-0.2082724628172864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>22.728971999999999</v>
       </c>
@@ -1377,8 +1668,12 @@
       <c r="D73" s="1">
         <v>0.474524</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0.35356178767684315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>40.369788</v>
       </c>
@@ -1391,8 +1686,12 @@
       <c r="D74" s="1">
         <v>0.316326</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.62797448179421278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>32.721336999999998</v>
       </c>
@@ -1405,8 +1704,12 @@
       <c r="D75" s="1">
         <v>0.47176499999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.50899857700983719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>52.319676999999999</v>
       </c>
@@ -1419,8 +1722,12 @@
       <c r="D76" s="1">
         <v>0.47212300000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.81386164454754117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>62.854452000000002</v>
       </c>
@@ -1433,8 +1740,12 @@
       <c r="D77" s="1">
         <v>0.32324399999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.97773592279353116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>68.888777000000005</v>
       </c>
@@ -1447,8 +1758,12 @@
       <c r="D78" s="1">
         <v>0.47434799999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>1.0716032008395013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>95.116577000000007</v>
       </c>
@@ -1461,8 +1776,12 @@
       <c r="D79" s="1">
         <v>0.31842599999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>1.4795912020051813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>104.87875</v>
       </c>
@@ -1475,8 +1794,12 @@
       <c r="D80" s="1">
         <v>0.31841399999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>1.6314472268834999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>109.95102300000001</v>
       </c>
@@ -1488,6 +1811,10 @@
       </c>
       <c r="D81" s="1">
         <v>0.31665399999999999</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1.7103492515533789</v>
       </c>
     </row>
   </sheetData>
@@ -1495,5 +1822,6 @@
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>